--- a/하루생각/하루생각 테이블 명세(2021-06-29).xlsx
+++ b/하루생각/하루생각 테이블 명세(2021-06-29).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\ADayMind-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\하루생각\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,9 +219,6 @@
     <t>u_warning</t>
   </si>
   <si>
-    <t>CHAR(6)</t>
-  </si>
-  <si>
     <t>VARCHAR(125)</t>
   </si>
   <si>
@@ -236,10 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고정문자열(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가변문자열(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,10 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고정문자열(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가변문자열(300)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -542,6 +531,26 @@
   </si>
   <si>
     <t>wr_origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저닉네임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_nick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3066,7 +3075,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3821,19 +3830,19 @@
         <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
@@ -3848,26 +3857,26 @@
         <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -3879,19 +3888,19 @@
         <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -3906,16 +3915,16 @@
         <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -3931,19 +3940,19 @@
         <v>41</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3958,19 +3967,19 @@
         <v>42</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -3985,13 +3994,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4039,7 +4048,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4695,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>12</v>
@@ -4720,7 +4729,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -4741,7 +4750,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
@@ -4796,19 +4805,19 @@
         <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
@@ -4823,26 +4832,26 @@
         <v>38</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -4851,16 +4860,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>64</v>
-      </c>
       <c r="F8" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4965,10 +4974,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E6:E13"/>
+      <selection activeCell="E6" sqref="E6:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5624,7 +5633,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>12</v>
@@ -5649,7 +5658,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -5720,22 +5729,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="35"/>
@@ -5747,29 +5756,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -5778,19 +5787,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -5803,18 +5812,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -5826,16 +5837,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5849,20 +5860,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5874,48 +5883,73 @@
         <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="15"/>
+      <c r="F14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5941,7 +5975,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6597,7 +6631,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>12</v>
@@ -6643,7 +6677,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
@@ -6695,22 +6729,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="35"/>
@@ -6722,29 +6756,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -6756,26 +6790,26 @@
         <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="16"/>
     </row>
@@ -6784,19 +6818,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -6809,16 +6843,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -6832,19 +6866,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6906,7 +6940,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7562,7 +7596,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>12</v>
@@ -7608,7 +7642,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
@@ -7660,22 +7694,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="35"/>
@@ -7687,29 +7721,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -7718,29 +7752,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>123</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="16"/>
     </row>
@@ -7749,16 +7783,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -7772,16 +7806,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
